--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,26 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>After powering off the aircraft,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -521,15 +521,40 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,26 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>After powering off the aircraft,</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -521,40 +521,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
